--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3153853.767652839</v>
+        <v>3151309.958145756</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323987.620234996</v>
+        <v>8323987.620234995</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5689651179052</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2461760794157</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.8804318482955</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>23.55762609770681</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>260.2363572824535</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="D5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.395245261935</v>
+        <v>77.09393081742186</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>67.09881849679809</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>219.1455308645188</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>194.9747007711214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288573</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662269</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932180115</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>107.4985065573597</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9398757025646</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.286285363935998e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428531</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899465</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899465</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899465</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>412.7875053134357</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>399.8236925399913</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052547</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243026</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="W2" t="n">
-        <v>573.7617370571245</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571245</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899465</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.8090849092609</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>603.8090849092609</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>454.8746752480097</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>295.6372202425542</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>149.1026622694392</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>149.1026622694392</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>48.61850037932828</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4419,13 +4419,13 @@
         <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374626</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374626</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>603.8090849092609</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>603.8090849092609</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>603.8090849092609</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.900151480424</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>315.900151480424</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
         <v>21.0971104001205</v>
@@ -4489,19 +4489,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287948</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>1031.059938089149</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>764.6822815219714</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>536.692730623954</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>315.900151480424</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749988</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>273.4227970725827</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>273.4227970725827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4735,10 +4735,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>466.0167908927597</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478446</v>
+        <v>366.9512895589264</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685568</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045933</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342784</v>
+        <v>2351.81067643906</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342784</v>
+        <v>2098.22949796463</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342784</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342784</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.618618149732</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.47928617392</v>
+        <v>760.4966303722516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010786</v>
+        <v>929.5097208010818</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199516</v>
+        <v>755.0566915199548</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587004</v>
+        <v>606.1222818587036</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532449</v>
+        <v>446.8848268532481</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801299</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763181</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445435</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>238.3188829507237</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331822</v>
+        <v>422.9158793018232</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666635</v>
+        <v>1056.655162486663</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040965</v>
+        <v>1419.721630960965</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513534</v>
+        <v>1806.806033433534</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500924</v>
+        <v>2138.692843420924</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930548</v>
+        <v>2421.055229888884</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2536.272628442629</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2002.726321751581</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1513.336856791637</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1305.485356586104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821147</v>
+        <v>1097.72505782115</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274018</v>
+        <v>476.1390772876028</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994949</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685568</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685568</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685568</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685574</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380163</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477363</v>
+        <v>1310.174753887027</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477363</v>
+        <v>1021.056380381669</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>766.3718921757817</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576415</v>
+        <v>657.7875421178426</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473703</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>915.1035305473703</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>764.9868911350345</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>617.0737975526414</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,25 +5887,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5966,13 +5966,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6841,19 +6841,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,10 +7436,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7448,13 +7448,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,43 +7655,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121677</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121679</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121679</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270479</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594518</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127282</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658828</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458176</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084426</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.68386670538996</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>14.48117232036668</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.404764594808</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219384</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715402.4342039403</v>
+        <v>715402.4342039402</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.274728755</v>
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580791</v>
+        <v>390680.0076580797</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606925</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101769</v>
+        <v>95270.23779101791</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.305927126235993e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.984355785251993e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608931</v>
+        <v>138058.0537608929</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768943</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768927</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321769007</v>
+        <v>9947.144321768934</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274162.2014949156</v>
+        <v>-274162.201494916</v>
       </c>
       <c r="C6" t="n">
         <v>405925.7790962774</v>
       </c>
       <c r="D6" t="n">
-        <v>96770.61963659682</v>
+        <v>96770.61963659644</v>
       </c>
       <c r="E6" t="n">
-        <v>87274.36852238639</v>
+        <v>87239.63059695113</v>
       </c>
       <c r="F6" t="n">
-        <v>595183.6005830792</v>
+        <v>595148.8626576436</v>
       </c>
       <c r="G6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="H6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576436</v>
       </c>
       <c r="I6" t="n">
-        <v>595183.6005830796</v>
+        <v>595148.8626576439</v>
       </c>
       <c r="J6" t="n">
-        <v>526184.4461639654</v>
+        <v>526149.7082385295</v>
       </c>
       <c r="K6" t="n">
-        <v>595183.6005830794</v>
+        <v>595148.8626576442</v>
       </c>
       <c r="L6" t="n">
-        <v>499913.3627920618</v>
+        <v>499878.6248666259</v>
       </c>
       <c r="M6" t="n">
-        <v>462465.6248876104</v>
+        <v>462430.8869621748</v>
       </c>
       <c r="N6" t="n">
-        <v>595183.6005830795</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="O6" t="n">
-        <v>595183.6005830793</v>
+        <v>595148.8626576437</v>
       </c>
       <c r="P6" t="n">
-        <v>595183.6005830789</v>
+        <v>595148.8626576434</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856967</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.230444731564992e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933047</v>
+        <v>319.6474457933051</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.2730407788903</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139519</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769304</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522297</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>16.67562792208989</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>1.802263929008859</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>228.5800172261212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>26.28664105413748</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6401949994326</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.1379383879323</v>
+        <v>89.43925283244548</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081363</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>158.6108368922391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6067276056161</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>174.7563999073477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164526611</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164529687</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020269</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>179.0244917792313</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>518.439455159358</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,25 +34211,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34787,16 +34787,16 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456602</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966407</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34869,7 +34869,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958081</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>188.9976037816848</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216754</v>
+        <v>186.461612475858</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>640.1406900856967</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>390.9943459318885</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074642</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804287</v>
+        <v>285.2145317858189</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783581</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
